--- a/Assets/Excel/EquippableItemInfo.xlsx
+++ b/Assets/Excel/EquippableItemInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104E989E-005D-4551-96EB-8169469C0E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F0BF4-5A7C-4130-8D09-D77CA6FE35E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1068" windowWidth="14892" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -92,6 +92,42 @@
   </si>
   <si>
     <t>Prefabs/Weapon/Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/RamonSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramon的剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Weapon/RamonSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/RamonShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ramon的盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Weapon/RamonShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RamonSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RamonShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,28 +484,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,10 +537,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -536,10 +575,13 @@
         <v>14</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -565,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -573,8 +615,11 @@
       <c r="K3">
         <v>0</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -606,6 +651,85 @@
         <v>22</v>
       </c>
       <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0.65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
         <v>-1</v>
       </c>
     </row>
